--- a/Excel excel excel bestnye.xlsx
+++ b/Excel excel excel bestnye.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOLING IS FUN\Year 2 sem 2\MEC3416\ST-23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC 3416\ST-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20309A71-C754-42DF-B460-BBD8573F50B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED25CF6-761B-4E55-87F4-49178944B3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54E2048A-4415-4651-99B5-0EF0CC87E6DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54E2048A-4415-4651-99B5-0EF0CC87E6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Parts</t>
-  </si>
-  <si>
-    <t>Wheel Rope</t>
   </si>
   <si>
     <t>Angle in radians</t>
@@ -144,6 +141,87 @@
   </si>
   <si>
     <t>Assuming that it rotates at 1 rad/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fastener </t>
+  </si>
+  <si>
+    <t>Wheel Rope (for 2.4 Tonne load)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaft at Male Gear </t>
+  </si>
+  <si>
+    <t>(assumed it is a simply supported beam)</t>
+  </si>
+  <si>
+    <t>Torque (from motor), Nm</t>
+  </si>
+  <si>
+    <t>Distance between bearing and motor, m</t>
+  </si>
+  <si>
+    <t>Reaction by bearing, N</t>
+  </si>
+  <si>
+    <t>Reaction By motor (vertical), N</t>
+  </si>
+  <si>
+    <t>Reaction By motor (horizontal), N</t>
+  </si>
+  <si>
+    <t>Axial Force (assumed value), N</t>
+  </si>
+  <si>
+    <t>Radius of screw, m</t>
+  </si>
+  <si>
+    <t>Cross sectional area, m^2</t>
+  </si>
+  <si>
+    <t>2nd moment of Area, m^4</t>
+  </si>
+  <si>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>Screw Length, m</t>
+  </si>
+  <si>
+    <t>Centroid of semi circle = Y bar</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Max Shear Force per screw, N</t>
+  </si>
+  <si>
+    <t>Max Shear Stress per screw, N</t>
+  </si>
+  <si>
+    <t>Bearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assuming all horizontal and vertical forces </t>
+  </si>
+  <si>
+    <t>are Radial Loads</t>
+  </si>
+  <si>
+    <t>F vertical, N</t>
+  </si>
+  <si>
+    <t>F horizontal, N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radius of shaft , m </t>
+  </si>
+  <si>
+    <t>F tangential, N</t>
   </si>
 </sst>
 </file>
@@ -159,15 +237,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -204,11 +288,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -236,6 +331,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,15 +661,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5373BFE-1F71-450B-A293-F590D0A3A936}">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
@@ -575,27 +685,27 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>52</v>
@@ -618,7 +728,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1.125</v>
@@ -640,16 +750,16 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -657,19 +767,19 @@
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>0.19</v>
@@ -678,7 +788,7 @@
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>7627.3349630000002</v>
@@ -695,7 +805,7 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>4144.6650369999998</v>
@@ -712,7 +822,7 @@
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>0.35</v>
@@ -721,7 +831,7 @@
     <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10">
         <v>0.25</v>
@@ -732,16 +842,16 @@
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>7627.3349630000002</v>
@@ -750,7 +860,7 @@
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>4144.6650369999998</v>
@@ -767,16 +877,16 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -787,24 +897,24 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>0.35</v>
@@ -817,7 +927,7 @@
     <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1">
         <f>D11*2</f>
@@ -826,10 +936,10 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <f>C27</f>
@@ -843,7 +953,7 @@
     <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <f>D12*2</f>
@@ -853,110 +963,257 @@
     <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1">
         <f>E27+E29</f>
         <v>1565.6759999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1">
+        <f>C33</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1">
+        <f>C34/C35</f>
+        <v>22857.142857142859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1">
+        <f>C37</f>
+        <v>22857.142857142859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="1">
+        <f>(E31/C29)/(2*4)</f>
+        <v>559.16999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1">
+        <f>PI()*C40^2</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1">
+        <f>PI()*(C40^4)/4</f>
+        <v>7.8539816339744827E-9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1">
+        <f>(4*C40)/(3*PI())</f>
+        <v>4.2441318157838762E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1">
+        <f>(C43/2)*C45</f>
+        <v>6.6666666666666671E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1">
+        <f xml:space="preserve"> C40</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1">
+        <f>E31</f>
+        <v>1565.6759999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1">
+        <f>(C42*C46)/(C44*C47)</f>
+        <v>4746382.3748637391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1">
+        <f>C17</f>
+        <v>7627.3349630000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1">
+        <f>E11/C51</f>
+        <v>10144.355500789999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
     </row>
     <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1333,6 +1590,30 @@
     </row>
     <row r="189" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
+    </row>
+    <row r="190" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="5"/>
+    </row>
+    <row r="191" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="5"/>
+    </row>
+    <row r="192" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="5"/>
+    </row>
+    <row r="193" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="5"/>
+    </row>
+    <row r="194" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="5"/>
+    </row>
+    <row r="195" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="5"/>
+    </row>
+    <row r="196" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="5"/>
+    </row>
+    <row r="197" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel excel excel bestnye.xlsx
+++ b/Excel excel excel bestnye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC 3416\ST-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED25CF6-761B-4E55-87F4-49178944B3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97C7A1-8296-4974-B5E7-CC42CD11DE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54E2048A-4415-4651-99B5-0EF0CC87E6DB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Parts</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>F tangential, N</t>
+  </si>
+  <si>
+    <t>(Add another bearing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change this bearing to the bearing </t>
+  </si>
+  <si>
+    <t>at the pulley</t>
+  </si>
+  <si>
+    <t>Torque only, no need internal shear force</t>
   </si>
 </sst>
 </file>
@@ -329,9 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -346,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,13 +675,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5373BFE-1F71-450B-A293-F590D0A3A936}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
@@ -910,7 +922,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -925,7 +937,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,7 +947,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -951,7 +963,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
@@ -974,29 +986,29 @@
       <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1005,7 +1017,9 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1038,7 +1052,7 @@
       <c r="A39" s="8"/>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1058,7 +1072,9 @@
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -1141,7 +1157,7 @@
       <c r="A50" s="8"/>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1158,13 +1174,17 @@
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>57</v>
       </c>

--- a/Excel excel excel bestnye.xlsx
+++ b/Excel excel excel bestnye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC 3416\ST-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97C7A1-8296-4974-B5E7-CC42CD11DE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B188BEA-F938-4D2A-89DE-82315623ED2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54E2048A-4415-4651-99B5-0EF0CC87E6DB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Parts</t>
   </si>
@@ -152,9 +152,6 @@
     <t xml:space="preserve">Shaft at Male Gear </t>
   </si>
   <si>
-    <t>(assumed it is a simply supported beam)</t>
-  </si>
-  <si>
     <t>Torque (from motor), Nm</t>
   </si>
   <si>
@@ -164,12 +161,6 @@
     <t>Reaction by bearing, N</t>
   </si>
   <si>
-    <t>Reaction By motor (vertical), N</t>
-  </si>
-  <si>
-    <t>Reaction By motor (horizontal), N</t>
-  </si>
-  <si>
     <t>Axial Force (assumed value), N</t>
   </si>
   <si>
@@ -234,6 +225,24 @@
   </si>
   <si>
     <t>Torque only, no need internal shear force</t>
+  </si>
+  <si>
+    <t>Reaction By bearing near motor (vertical), N</t>
+  </si>
+  <si>
+    <t>Reaction By bearing near motor (horizontal), N</t>
+  </si>
+  <si>
+    <t>Beam Length, m</t>
+  </si>
+  <si>
+    <t>Reaction Force per Screw, N</t>
+  </si>
+  <si>
+    <t>Torque (from motor), Nm (Counter Clockwise)</t>
+  </si>
+  <si>
+    <t>(depends on direction of torque)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,7 +267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -350,14 +365,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,14 +696,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5373BFE-1F71-450B-A293-F590D0A3A936}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
     <col min="5" max="5" width="38.109375" customWidth="1"/>
@@ -922,7 +943,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -937,7 +958,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -947,7 +968,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -963,7 +984,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,255 +1006,282 @@
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C34" s="11">
         <v>4000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1">
+        <v>58</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="17">
         <f>C33</f>
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1">
         <f>C34/C35</f>
         <v>22857.142857142859</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <f>C37</f>
         <v>22857.142857142859</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="15">
         <v>0.06</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="15">
         <f>(E31/C29)/(2*4)</f>
         <v>559.16999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="1">
-        <f>PI()*C40^2</f>
+        <v>67</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="15">
+        <f>PI()*F40^2</f>
         <v>3.1415926535897931E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="1" t="s">
+      <c r="E44" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="15">
+        <f>PI()*(F40^4)/4</f>
+        <v>7.8539816339744827E-9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="E45" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="1">
-        <f>PI()*(C40^4)/4</f>
-        <v>7.8539816339744827E-9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="1">
-        <f>(4*C40)/(3*PI())</f>
+      <c r="F45" s="15">
+        <f>(4*F40)/(3*PI())</f>
         <v>4.2441318157838762E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="1">
-        <f>(C43/2)*C45</f>
+      <c r="E46" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="15">
+        <f>(F43/2)*F45</f>
         <v>6.6666666666666671E-7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="1">
-        <f xml:space="preserve"> C40</f>
+      <c r="E47" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="15">
+        <f xml:space="preserve"> F40</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="E48" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="15">
         <f>E31</f>
         <v>1565.6759999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="1">
-        <f>(C42*C46)/(C44*C47)</f>
+      <c r="E49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="15">
+        <f>(F42*F46)/(F44*F47)</f>
         <v>4746382.3748637391</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>54</v>
+    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="1">
+        <v>8</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="15">
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="1">
+        <v>60</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="15">
         <f>C17</f>
         <v>7627.3349630000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="1">
-        <f>E11/C51</f>
+      <c r="E55" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="15">
+        <f>E11/F51</f>
         <v>10144.355500789999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="E56" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
     </row>
     <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1641,5 +1689,6 @@
     <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel excel excel bestnye.xlsx
+++ b/Excel excel excel bestnye.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC 3416\ST-23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOLING IS FUN\Year 2 sem 2\MEC3416\ST-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B188BEA-F938-4D2A-89DE-82315623ED2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F108E4A3-2925-4669-AE5A-4A7A9A841914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54E2048A-4415-4651-99B5-0EF0CC87E6DB}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{54E2048A-4415-4651-99B5-0EF0CC87E6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,12 +105,6 @@
     <t xml:space="preserve">Friction force </t>
   </si>
   <si>
-    <t>Load for left wheels (only concrete block) (N)</t>
-  </si>
-  <si>
-    <t>Load for right wheels (only concrete block) (N)</t>
-  </si>
-  <si>
     <t>Friction coefficent (static friction only)
 Material: Mild steel</t>
   </si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>(depends on direction of torque)</t>
+  </si>
+  <si>
+    <t>Load for each left wheel (only concrete block) (N)</t>
+  </si>
+  <si>
+    <t>Load for each right wheel (only concrete block) (N)</t>
   </si>
 </sst>
 </file>
@@ -365,9 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -379,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,14 +696,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5373BFE-1F71-450B-A293-F590D0A3A936}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
     <col min="5" max="5" width="38.109375" customWidth="1"/>
@@ -718,7 +718,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -812,7 +812,7 @@
     <row r="10" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>0.19</v>
@@ -821,41 +821,41 @@
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
-        <v>7627.3349630000002</v>
+        <v>6777.818182</v>
       </c>
       <c r="D11" s="1">
         <f>C11*$C$10</f>
-        <v>1449.1936429700002</v>
+        <v>1287.7854545800001</v>
       </c>
       <c r="E11" s="1">
         <f>D11*$C$13</f>
-        <v>507.2177750395</v>
+        <v>450.72490910300002</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1">
-        <v>4144.6650369999998</v>
+        <v>4994.181818</v>
       </c>
       <c r="D12" s="1">
         <f>C12*$C$10</f>
-        <v>787.48635702999991</v>
+        <v>948.89454541999999</v>
       </c>
       <c r="E12" s="1">
         <f>D12*$C$13</f>
-        <v>275.62022496049997</v>
+        <v>332.11309089699995</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>0.35</v>
@@ -864,7 +864,7 @@
     <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10">
         <v>0.25</v>
@@ -887,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>7627.3349630000002</v>
+        <v>6777.818182</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>4144.6650369999998</v>
+        <v>4994.181818</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -930,49 +930,49 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>29</v>
+      <c r="A27" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <v>0.35</v>
       </c>
       <c r="E27" s="1">
         <f>C28*C27</f>
-        <v>1014.435550079</v>
+        <v>901.44981820600003</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1">
         <f>D11*2</f>
-        <v>2898.3872859400003</v>
+        <v>2575.5709091600002</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>30</v>
+      <c r="A29" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <f>C27</f>
@@ -980,23 +980,23 @@
       </c>
       <c r="E29" s="1">
         <f>C29*C30</f>
-        <v>551.24044992099994</v>
+        <v>664.2261817939999</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1">
         <f>D12*2</f>
-        <v>1574.9727140599998</v>
+        <v>1897.78909084</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1">
         <f>E27+E29</f>
@@ -1008,19 +1008,19 @@
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="11">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="11">
         <v>4000</v>
@@ -1029,7 +1029,7 @@
     <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
         <v>0.17499999999999999</v>
@@ -1037,12 +1037,12 @@
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="17">
+        <v>56</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="16">
         <f>C33</f>
         <v>100</v>
       </c>
@@ -1050,7 +1050,7 @@
     <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1">
         <f>C34/C35</f>
@@ -1060,7 +1060,7 @@
     <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <f>C37</f>
@@ -1071,51 +1071,51 @@
       <c r="A39" s="8"/>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>34</v>
+      <c r="A40" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1">
         <v>4000</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="15">
+      <c r="E40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="14">
         <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="1">
         <v>0.2</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="15">
+      <c r="E41" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="14">
         <v>0.06</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1">
         <v>10000</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="15">
+      <c r="E42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="14">
         <f>(E31/C29)/(2*4)</f>
         <v>559.16999999999996</v>
       </c>
@@ -1123,72 +1123,72 @@
     <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="15">
+        <v>65</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="14">
         <f>PI()*F40^2</f>
         <v>3.1415926535897931E-4</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="E44" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="15">
+      <c r="E44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="14">
         <f>PI()*(F40^4)/4</f>
         <v>7.8539816339744827E-9</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="E45" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="15">
+      <c r="E45" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="14">
         <f>(4*F40)/(3*PI())</f>
         <v>4.2441318157838762E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="E46" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="15">
+      <c r="E46" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="14">
         <f>(F43/2)*F45</f>
         <v>6.6666666666666671E-7</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="E47" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="15">
+      <c r="E47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="14">
         <f xml:space="preserve"> F40</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="E48" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="15">
+      <c r="E48" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="14">
         <f>E31</f>
         <v>1565.6759999999999</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="E49" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="15">
+      <c r="E49" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="14">
         <f>(F42*F46)/(F44*F47)</f>
         <v>4746382.3748637391</v>
       </c>
@@ -1197,16 +1197,16 @@
       <c r="A50" s="8"/>
     </row>
     <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>51</v>
+      <c r="A51" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="15">
+      <c r="E51" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="14">
         <v>0.05</v>
       </c>
     </row>
@@ -1215,48 +1215,48 @@
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="15"/>
+      <c r="E52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="15">
+        <v>58</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="14">
         <f>C17</f>
-        <v>7627.3349630000002</v>
+        <v>6777.818182</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="E55" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="15">
+      <c r="E55" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="14">
         <f>E11/F51</f>
-        <v>10144.355500789999</v>
+        <v>9014.4981820600005</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="E56" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="15">
+      <c r="E56" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="14">
         <v>0</v>
       </c>
     </row>
